--- a/resultados/resultados AR Crooped.xlsx
+++ b/resultados/resultados AR Crooped.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>Normal</t>
   </si>
@@ -355,13 +355,19 @@
   </si>
   <si>
     <t>5 Cortes</t>
+  </si>
+  <si>
+    <t>AR Faces - Oclusão</t>
+  </si>
+  <si>
+    <t>Taxa de acerto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,14 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -393,7 +391,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -405,27 +403,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -435,16 +413,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,18 +449,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$M$2</c:f>
+              <c:f>Plan1!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média</c:v>
+                  <c:v>Taxa de acerto</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$N$1:$R$1</c:f>
+              <c:f>Plan1!$O$4:$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -502,7 +483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$N$2:$R$2</c:f>
+              <c:f>Plan1!$O$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -530,7 +511,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan1!$M$3</c:f>
+              <c:f>Plan1!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,7 +522,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$N$1:$R$1</c:f>
+              <c:f>Plan1!$O$4:$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -564,7 +545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$N$3:$R$3</c:f>
+              <c:f>Plan1!$O$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -588,24 +569,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55335552"/>
-        <c:axId val="60113280"/>
+        <c:axId val="130926464"/>
+        <c:axId val="130928000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55335552"/>
+        <c:axId val="130926464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60113280"/>
+        <c:crossAx val="130928000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60113280"/>
+        <c:axId val="130928000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +594,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55335552"/>
+        <c:crossAx val="130926464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,7 +607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -952,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -970,106 +951,68 @@
     <col min="10" max="10" width="16.5546875" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" customWidth="1"/>
     <col min="17" max="17" width="9.88671875" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickTop="1">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="3">
-        <f>C3</f>
-        <v>0.15333333333333349</v>
-      </c>
-      <c r="O2" s="3">
-        <f>E3</f>
-        <v>0.67993333333333339</v>
-      </c>
-      <c r="P2" s="3">
-        <f>G3</f>
-        <v>0.81083333333333352</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>I3</f>
-        <v>0.86</v>
-      </c>
-      <c r="R2" s="3">
-        <f>K3</f>
-        <v>0.87833333333333341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>AVERAGE(B3:B102)</f>
         <v>0.15333333333333349</v>
       </c>
       <c r="D3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>AVERAGE(D3:D102)</f>
         <v>0.67993333333333339</v>
       </c>
@@ -1094,31 +1037,15 @@
         <f>AVERAGE(J3:J102)</f>
         <v>0.87833333333333341</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="3">
-        <f>C5</f>
-        <v>0.19488406291895177</v>
-      </c>
-      <c r="O3" s="3">
-        <f>E5</f>
-        <v>0.26371896921728655</v>
-      </c>
-      <c r="P3" s="3">
-        <f>G5</f>
-        <v>0.22280699574135959</v>
-      </c>
-      <c r="Q3" s="3">
-        <f>I5</f>
-        <v>0.1768282724422329</v>
-      </c>
-      <c r="R3" s="3">
-        <f>K5</f>
-        <v>0.18173468902266074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="O3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1079,24 @@
       <c r="K4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="N4" s="4"/>
+      <c r="O4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1135,31 @@
         <f>STDEV(J3:J102)</f>
         <v>0.18173468902266074</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="N5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="2">
+        <f>C3</f>
+        <v>0.15333333333333349</v>
+      </c>
+      <c r="P5" s="2">
+        <f>E3</f>
+        <v>0.67993333333333339</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>G3</f>
+        <v>0.81083333333333352</v>
+      </c>
+      <c r="R5" s="2">
+        <f>I3</f>
+        <v>0.86</v>
+      </c>
+      <c r="S5" s="2">
+        <f>K3</f>
+        <v>0.87833333333333341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1212,8 +1178,31 @@
       <c r="J6">
         <v>0.91666666666666696</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="N6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="2">
+        <f>C5</f>
+        <v>0.19488406291895177</v>
+      </c>
+      <c r="P6" s="2">
+        <f>E5</f>
+        <v>0.26371896921728655</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>G5</f>
+        <v>0.22280699574135959</v>
+      </c>
+      <c r="R6" s="2">
+        <f>I5</f>
+        <v>0.1768282724422329</v>
+      </c>
+      <c r="S6" s="2">
+        <f>K5</f>
+        <v>0.18173468902266074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1333,7 +1322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1342,7 @@
         <v>0.91666666666666696</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3134,8 +3123,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O3:S3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
